--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eniaxiong/Desktop/inv/item-search-offline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CF891-8DBD-F345-A6B5-8E5B9FD0DF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29118A-AA8B-4046-AD5C-96450B83792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="5580" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2866,7 +2866,7 @@
   <dimension ref="A1:F811"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
